--- a/data/trans_dic/P8_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P8_R-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N17"/>
+  <dimension ref="A1:Q18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -529,12 +530,15 @@
     <col width="14" customWidth="1" min="12" max="12"/>
     <col width="14" customWidth="1" min="13" max="13"/>
     <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que vive en hogares unipersonales</t>
+          <t>Población que vive en hogares unipersonales (tasa de respuesta: 99,94%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -546,22 +550,25 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
       <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="L1" s="3" t="n"/>
-      <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -588,42 +595,57 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -642,6 +664,9 @@
       <c r="L3" s="2" t="n"/>
       <c r="M3" s="2" t="n"/>
       <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -656,27 +681,27 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>1,58%</t>
+          <t>3,11%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>4,02%</t>
+          <t>3,46%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>2,3%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>2,15%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>5,43%</t>
+          <t>7,73%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
@@ -686,32 +711,47 @@
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>1,78%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,82%</t>
+          <t>3,51%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>3,69%</t>
+          <t>1,69%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>1,93%</t>
+          <t>1,83%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>2,04%</t>
+          <t>1,32%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>1,55%</t>
+          <t>1,53%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>1,87%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>0,83%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>4,78%</t>
         </is>
       </c>
     </row>
@@ -724,62 +764,77 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,81</t>
+          <t>0,0; 15,9</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 14,43</t>
+          <t>0,0; 17,48</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 13,48</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 12,25</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 27,05</t>
+          <t>2,26; 20,47</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0; 2,52</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,47</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,32</t>
+          <t>0,0; 10,72</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 14,26</t>
+          <t>0,0; 8,71</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,44</t>
+          <t>0,0; 9,45</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0,42; 6,65</t>
+          <t>0,0; 5,38</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,98</t>
+          <t>0,0; 6,24</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 6,17</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 5,0</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>1,19; 11,77</t>
         </is>
       </c>
     </row>
@@ -796,62 +851,77 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>7,51%</t>
+          <t>3,92%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>6,69%</t>
+          <t>3,73%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>9,35%</t>
+          <t>6,1%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>9,72%</t>
+          <t>7,84%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
+          <t>5,88%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>1,2%</t>
-        </is>
-      </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>2,39%</t>
+          <t>1,85%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>2,29%</t>
+          <t>3,63%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>3,65%</t>
+          <t>3,91%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>3,82%</t>
+          <t>4,42%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>5,9%</t>
+          <t>1,99%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>6,18%</t>
+          <t>2,8%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>4,94%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>6,07%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>5,27%</t>
         </is>
       </c>
     </row>
@@ -864,62 +934,77 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,6; 15,13</t>
+          <t>0,0; 14,14</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2,34; 14,33</t>
+          <t>0,0; 13,47</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>3,97; 17,69</t>
+          <t>1,63; 19,57</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>4,33; 18,06</t>
+          <t>2,06; 19,53</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0; 2,13</t>
+          <t>1,47; 18,57</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,52</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,89</t>
+          <t>0,0; 9,47</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,6</t>
+          <t>0,0; 11,48</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>1,26; 7,57</t>
+          <t>0,0; 12,82</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>1,4; 7,9</t>
+          <t>1,23; 12,62</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>2,83; 10,54</t>
+          <t>0,0; 6,57</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>3,19; 10,77</t>
+          <t>0,85; 8,01</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>1,87; 11,84</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>2,41; 12,64</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>1,96; 11,93</t>
         </is>
       </c>
     </row>
@@ -936,62 +1021,77 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>5,62%</t>
+          <t>7,42%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>4,75%</t>
+          <t>7,27%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>6,87%</t>
+          <t>9,32%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>7,26%</t>
+          <t>10,63%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,59%</t>
+          <t>12,09%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,54%</t>
+          <t>0,85%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>1,48%</t>
+          <t>0,82%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>1,41%</t>
+          <t>2,03%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>2,91%</t>
+          <t>2,09%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>2,54%</t>
+          <t>2,04%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>4,02%</t>
+          <t>3,44%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>4,27%</t>
+          <t>3,27%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>4,88%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>5,56%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>6,35%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1104,77 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,01; 11,7</t>
+          <t>1,91; 18,0</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,75; 10,67</t>
+          <t>1,88; 17,67</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>3,14; 13,84</t>
+          <t>3,66; 19,84</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>3,52; 14,33</t>
+          <t>4,88; 21,44</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,11</t>
+          <t>5,44; 22,31</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,97</t>
+          <t>0,0; 4,28</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,56</t>
+          <t>0,0; 4,13</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,41</t>
+          <t>0,0; 7,13</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>1,24; 5,87</t>
+          <t>0,0; 7,28</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>1,1; 5,01</t>
+          <t>0,0; 7,93</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>2,09; 7,25</t>
+          <t>1,34; 7,77</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>2,38; 7,67</t>
+          <t>1,28; 7,45</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>2,06; 9,3</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>2,65; 10,72</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>3,05; 11,19</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1191,77 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>6,9%</t>
+          <t>5,27%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>8,77%</t>
+          <t>7,77%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>8,37%</t>
+          <t>7,71%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>8,3%</t>
+          <t>7,53%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>5,19%</t>
+          <t>8,49%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>4,98%</t>
+          <t>5,82%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>5,62%</t>
+          <t>5,82%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>4,97%</t>
+          <t>5,96%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>5,96%</t>
+          <t>6,04%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>6,67%</t>
+          <t>8,78%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>6,86%</t>
+          <t>5,57%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>6,52%</t>
+          <t>6,72%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>6,77%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>6,75%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>8,64%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1274,77 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>3,11; 12,23</t>
+          <t>1,38; 11,97</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>4,62; 15,33</t>
+          <t>3,73; 15,64</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>4,41; 14,67</t>
+          <t>2,71; 15,3</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>4,34; 14,59</t>
+          <t>2,63; 14,91</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>2,37; 9,07</t>
+          <t>3,52; 16,92</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>2,33; 8,6</t>
+          <t>2,02; 11,76</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>2,78; 9,6</t>
+          <t>1,99; 11,74</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>2,31; 8,6</t>
+          <t>2,05; 12,12</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>3,64; 9,15</t>
+          <t>2,18; 12,34</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>4,25; 10,12</t>
+          <t>4,29; 15,46</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>4,3; 10,26</t>
+          <t>3,16; 9,99</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>4,09; 10,14</t>
+          <t>3,8; 11,19</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>3,49; 10,99</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>3,65; 11,03</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>5,18; 13,99</t>
         </is>
       </c>
     </row>
@@ -1216,62 +1361,77 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>10,18%</t>
+          <t>8,88%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>10,67%</t>
+          <t>10,27%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>10,78%</t>
+          <t>10,51%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>10,4%</t>
+          <t>9,01%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>14,4%</t>
+          <t>16,31%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>11,84%</t>
+          <t>13,92%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>11,25%</t>
+          <t>12,02%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>12,68%</t>
+          <t>11,7%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>12,23%</t>
+          <t>14,53%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>11,23%</t>
+          <t>23,51%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
+          <t>11,03%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>11,01%</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
           <t>11,0%</t>
         </is>
       </c>
-      <c r="N12" s="2" t="inlineStr">
-        <is>
-          <t>11,51%</t>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>11,38%</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>19,69%</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1444,77 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>4,68; 23,49</t>
+          <t>1,55; 27,67</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>4,15; 29,09</t>
+          <t>1,49; 32,56</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>4,35; 28,07</t>
+          <t>1,42; 33,89</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>4,24; 24,7</t>
+          <t>1,36; 28,6</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>8,51; 22,23</t>
+          <t>7,83; 32,43</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>6,37; 19,4</t>
+          <t>6,03; 26,51</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>6,08; 18,39</t>
+          <t>4,38; 23,83</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>7,06; 19,85</t>
+          <t>5,1; 22,99</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>8,11; 19,31</t>
+          <t>6,26; 27,1</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>6,97; 19,68</t>
+          <t>12,83; 38,21</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>6,83; 19,13</t>
+          <t>5,94; 23,51</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>7,27; 18,87</t>
+          <t>5,35; 27,78</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>5,24; 28,63</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>5,98; 25,59</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>13,08; 31,08</t>
         </is>
       </c>
     </row>
@@ -1356,62 +1531,77 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>7,99%</t>
+          <t>2,31%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>7,89%</t>
+          <t>2,35%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>7,66%</t>
+          <t>2,22%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>8,43%</t>
+          <t>2,58%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>19,77%</t>
+          <t>4,45%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>18,35%</t>
+          <t>24,21%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>16,64%</t>
+          <t>21,67%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>15,5%</t>
+          <t>21,94%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>14,53%</t>
+          <t>21,64%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>13,77%</t>
+          <t>20,45%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>12,91%</t>
+          <t>14,19%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>12,67%</t>
+          <t>13,12%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>12,99%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>13,08%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>14,13%</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1614,77 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>2,66; 16,6</t>
+          <t>0,0; 11,56</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>2,74; 16,47</t>
+          <t>0,0; 11,8</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>2,64; 15,99</t>
+          <t>0,0; 11,02</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>3,01; 17,84</t>
+          <t>0,0; 12,75</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>11,82; 29,06</t>
+          <t>0,0; 15,19</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>11,43; 27,64</t>
+          <t>13,1; 37,67</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>9,89; 26,13</t>
+          <t>11,78; 36,16</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>7,98; 25,03</t>
+          <t>11,67; 35,97</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>9,37; 20,8</t>
+          <t>11,49; 36,03</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>9,2; 19,63</t>
+          <t>9,7; 34,21</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>8,42; 18,37</t>
+          <t>7,17; 22,41</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>7,53; 18,03</t>
+          <t>6,46; 21,42</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>6,78; 21,17</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>6,78; 22,33</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>7,11; 22,05</t>
         </is>
       </c>
     </row>
@@ -1496,62 +1701,77 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>6,78%</t>
+          <t>5,49%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>7,11%</t>
+          <t>6,17%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>7,53%</t>
+          <t>6,48%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>7,49%</t>
+          <t>6,58%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>7,08%</t>
+          <t>9,06%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>5,68%</t>
+          <t>6,14%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>6,13%</t>
+          <t>5,96%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>6,05%</t>
+          <t>6,92%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>6,94%</t>
+          <t>7,15%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>6,36%</t>
+          <t>9,81%</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>6,8%</t>
+          <t>5,84%</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>6,76%</t>
+          <t>6,06%</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>6,71%</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>6,87%</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>9,45%</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1784,84 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>4,68; 9,22</t>
+          <t>3,18; 9,66</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>4,89; 10,04</t>
+          <t>3,6; 11,22</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>5,23; 10,34</t>
+          <t>3,92; 11,17</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>5,41; 10,26</t>
+          <t>4,25; 10,58</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>5,25; 10,03</t>
+          <t>5,86; 13,2</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>4,11; 7,51</t>
+          <t>4,25; 8,78</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>4,63; 8,01</t>
+          <t>4,03; 8,56</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>4,53; 7,95</t>
+          <t>4,85; 9,6</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>5,41; 8,73</t>
+          <t>4,87; 9,93</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>4,92; 7,97</t>
+          <t>7,2; 13,38</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>5,39; 8,37</t>
+          <t>4,2; 7,98</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>5,37; 8,31</t>
+          <t>4,25; 8,31</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>4,84; 9,13</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>4,99; 9,04</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>6,97; 11,96</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
@@ -1628,15 +1870,1980 @@
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="M1:Q1"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:Q25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que vive en hogares unipersonales (tasa de respuesta: 99,94%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>2682</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>3699</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>11270</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>4216</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>2069</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>2663</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>2682</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>3699</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>4216</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>2069</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>13933</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>0; 13692</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>0; 18704</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>3299; 29848</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>0; 12877</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>0; 10667</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>0; 13753</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>0; 10968</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>0; 15032</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>0; 13929</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>0; 12513</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>3466; 34286</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>5366</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>6287</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>8744</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>12088</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>13382</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>3047</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>4605</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>4936</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>7177</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>5366</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>9334</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>13349</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>17023</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>20558</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>0; 19342</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>0; 22731</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>2334; 28067</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>3186; 30125</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>3345; 42287</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>0; 15640</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>0; 14547</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>0; 16197</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>1994; 20496</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>0; 17759</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>2829; 26731</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>5064; 31989</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>6762; 35459</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>7627; 46552</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>10367</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>11787</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>12522</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>14629</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>21791</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>1837</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>2162</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>4253</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>4184</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>4887</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>12203</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>13949</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>16775</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>18814</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>26678</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>2675; 25157</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>3048; 28642</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>4922; 26664</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>6719; 29511</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>9798; 40223</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>0; 9215</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>0; 10910</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>0; 14926</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>0; 14601</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>0; 19005</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>4761; 27598</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>5474; 31730</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>7076; 31966</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>8950; 36232</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>12801; 46999</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>8617</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>14499</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>12430</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>11761</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>16835</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>11130</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>12708</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>11081</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>10410</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>18686</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>19747</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>27207</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>23512</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>22171</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>35521</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>2263; 19561</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>6957; 29201</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>4362; 24674</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>4116; 23293</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>6983; 33566</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>3855; 22489</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>4347; 25627</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>3807; 22540</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>3753; 21276</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>9125; 32892</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>11212; 35458</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>15382; 45307</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>12099; 38150</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>12009; 36236</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>21315; 57506</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>12331</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>16167</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>13876</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>11103</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>25224</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>14403</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>13972</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>10972</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>13468</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>32221</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>26734</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>30139</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>24849</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>24571</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>57444</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>2146; 38428</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>2353; 51256</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>1878; 44753</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>1680; 35237</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>12116; 50147</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>6237; 27430</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>5095; 27691</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>4781; 21565</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>5799; 25110</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>17590; 52366</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>14400; 56986</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>14640; 76004</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>11835; 64673</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>12918; 55245</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>38167; 90675</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>2081</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>2572</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>1938</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>2326</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>6140</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>25912</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>29821</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>23067</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>23933</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>43118</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>27993</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>32393</t>
+        </is>
+      </c>
+      <c r="O20" s="2" t="inlineStr">
+        <is>
+          <t>25005</t>
+        </is>
+      </c>
+      <c r="P20" s="2" t="inlineStr">
+        <is>
+          <t>26259</t>
+        </is>
+      </c>
+      <c r="Q20" s="2" t="inlineStr">
+        <is>
+          <t>49257</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>0; 10432</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>0; 12904</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>0; 9625</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>0; 11494</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>0; 20937</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>14022; 40314</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>16208; 49751</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>12267; 37819</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>12711; 39849</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>20449; 72123</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>14153; 44201</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>15942; 52885</t>
+        </is>
+      </c>
+      <c r="O21" s="2" t="inlineStr">
+        <is>
+          <t>13048; 40748</t>
+        </is>
+      </c>
+      <c r="P21" s="2" t="inlineStr">
+        <is>
+          <t>13603; 44825</t>
+        </is>
+      </c>
+      <c r="Q21" s="2" t="inlineStr">
+        <is>
+          <t>24780; 76867</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>41.0</t>
+        </is>
+      </c>
+      <c r="O22" s="2" t="inlineStr">
+        <is>
+          <t>46.0</t>
+        </is>
+      </c>
+      <c r="P22" s="2" t="inlineStr">
+        <is>
+          <t>48.0</t>
+        </is>
+      </c>
+      <c r="Q22" s="2" t="inlineStr">
+        <is>
+          <t>66.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>41444</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>55011</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>49511</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>51907</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>94641</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>53282</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>61710</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>58194</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>59000</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>108751</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>94726</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>116721</t>
+        </is>
+      </c>
+      <c r="O23" s="2" t="inlineStr">
+        <is>
+          <t>107705</t>
+        </is>
+      </c>
+      <c r="P23" s="2" t="inlineStr">
+        <is>
+          <t>110907</t>
+        </is>
+      </c>
+      <c r="Q23" s="2" t="inlineStr">
+        <is>
+          <t>203392</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>24001; 72946</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>32075; 99959</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>29941; 85352</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>33537; 83478</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>61193; 137915</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>36913; 76205</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>41760; 88602</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>40773; 80776</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>40213; 81896</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>79758; 148265</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>68253; 129462</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>81955; 160051</t>
+        </is>
+      </c>
+      <c r="O24" s="2" t="inlineStr">
+        <is>
+          <t>77651; 146525</t>
+        </is>
+      </c>
+      <c r="P24" s="2" t="inlineStr">
+        <is>
+          <t>80596; 145944</t>
+        </is>
+      </c>
+      <c r="Q24" s="2" t="inlineStr">
+        <is>
+          <t>150114; 257536</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>